--- a/biology/Médecine/Problème_de_santé_publique/Problème_de_santé_publique.xlsx
+++ b/biology/Médecine/Problème_de_santé_publique/Problème_de_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Probl%C3%A8me_de_sant%C3%A9_publique</t>
+          <t>Problème_de_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un problème de santé publique (ou problème collectif de santé) se définit, pour un groupe de personnes ou une population, comme la différence critique entre l'état de santé réel, mesuré par des indicateurs et l'état de santé recommandé par des normes.
 </t>
